--- a/dj-edb-mixes_DynamoDbSchema.xlsx
+++ b/dj-edb-mixes_DynamoDbSchema.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">SoundCloudHTML</t>
   </si>
   <si>
-    <t xml:space="preserve">Embeded SoundCloud Player HTML</t>
+    <t xml:space="preserve">Embedded SoundCloud Player HTML</t>
   </si>
   <si>
     <t xml:space="preserve">MixCloudURL</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">MixCloudHTML</t>
   </si>
   <si>
-    <t xml:space="preserve">Embeded MixCloud Player HTML</t>
+    <t xml:space="preserve">Embedded MixCloud Player HTML</t>
   </si>
   <si>
     <t xml:space="preserve">PlayList</t>
@@ -463,14 +463,14 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
